--- a/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T18:15:07+00:00</t>
+    <t>2022-10-23T19:27:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -780,7 +780,7 @@
     <t>AdministrableProductDefinition.producedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ManufacturedItemDefinition)
+    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLManufacturedItemDefinition)
 </t>
   </si>
   <si>

--- a/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T19:27:30+00:00</t>
+    <t>2022-10-23T19:35:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -495,7 +495,7 @@
     <t>AdministrableProductDefinition.formOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicinalProductDefinition)
+    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLMedicinalProductDefinition)
 </t>
   </si>
   <si>

--- a/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T19:35:12+00:00</t>
+    <t>2022-10-23T20:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T20:13:34+00:00</t>
+    <t>2022-10-25T12:14:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T12:14:01+00:00</t>
+    <t>2022-10-25T13:47:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T13:47:24+00:00</t>
+    <t>2022-10-30T17:01:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2364" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2740" uniqueCount="365">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T17:01:43+00:00</t>
+    <t>2022-10-30T18:15:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -949,6 +949,42 @@
   </si>
   <si>
     <t>Route of Administration.Route of Administration</t>
+  </si>
+  <si>
+    <t>AdministrableProductDefinition.routeOfAdministration.code.id</t>
+  </si>
+  <si>
+    <t>AdministrableProductDefinition.routeOfAdministration.code.extension</t>
+  </si>
+  <si>
+    <t>AdministrableProductDefinition.routeOfAdministration.code.coding</t>
+  </si>
+  <si>
+    <t>AdministrableProductDefinition.routeOfAdministration.code.coding.id</t>
+  </si>
+  <si>
+    <t>AdministrableProductDefinition.routeOfAdministration.code.coding.extension</t>
+  </si>
+  <si>
+    <t>AdministrableProductDefinition.routeOfAdministration.code.coding.system</t>
+  </si>
+  <si>
+    <t>https://spor.ema.europa.eu/rmswi/#/lists/100000073345/terms</t>
+  </si>
+  <si>
+    <t>AdministrableProductDefinition.routeOfAdministration.code.coding.version</t>
+  </si>
+  <si>
+    <t>AdministrableProductDefinition.routeOfAdministration.code.coding.code</t>
+  </si>
+  <si>
+    <t>AdministrableProductDefinition.routeOfAdministration.code.coding.display</t>
+  </si>
+  <si>
+    <t>AdministrableProductDefinition.routeOfAdministration.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t>AdministrableProductDefinition.routeOfAdministration.code.text</t>
   </si>
   <si>
     <t>AdministrableProductDefinition.routeOfAdministration.firstDose</t>
@@ -1398,7 +1434,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL69"/>
+  <dimension ref="A1:AL80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -7073,16 +7109,16 @@
         <v>76</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>304</v>
+        <v>85</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>305</v>
+        <v>168</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>306</v>
+        <v>169</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7133,7 +7169,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>303</v>
+        <v>170</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>74</v>
@@ -7145,32 +7181,32 @@
         <v>76</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>307</v>
+        <v>76</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>76</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>76</v>
@@ -7179,18 +7215,20 @@
         <v>76</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>304</v>
+        <v>129</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>309</v>
+        <v>130</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>76</v>
@@ -7227,45 +7265,45 @@
         <v>76</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>308</v>
+        <v>176</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>311</v>
+        <v>76</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>76</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7276,7 +7314,7 @@
         <v>74</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>76</v>
@@ -7288,16 +7326,20 @@
         <v>84</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>304</v>
+        <v>178</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>313</v>
+        <v>179</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>76</v>
       </c>
@@ -7345,13 +7387,13 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>312</v>
+        <v>183</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>76</v>
@@ -7360,18 +7402,18 @@
         <v>95</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>315</v>
+        <v>76</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>76</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7391,16 +7433,16 @@
         <v>76</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>317</v>
+        <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>318</v>
+        <v>168</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>319</v>
+        <v>169</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7451,7 +7493,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>316</v>
+        <v>170</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>74</v>
@@ -7463,32 +7505,32 @@
         <v>76</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>320</v>
+        <v>76</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>76</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>76</v>
@@ -7497,18 +7539,20 @@
         <v>76</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>322</v>
+        <v>129</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>323</v>
+        <v>130</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>76</v>
@@ -7545,45 +7589,45 @@
         <v>76</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>321</v>
+        <v>176</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>325</v>
+        <v>76</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>76</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7594,7 +7638,7 @@
         <v>74</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>76</v>
@@ -7606,16 +7650,20 @@
         <v>84</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>264</v>
+        <v>97</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>327</v>
+        <v>188</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>76</v>
       </c>
@@ -7624,7 +7672,7 @@
         <v>76</v>
       </c>
       <c r="R58" t="s" s="2">
-        <v>76</v>
+        <v>309</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>76</v>
@@ -7663,13 +7711,13 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>326</v>
+        <v>193</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>76</v>
@@ -7678,18 +7726,18 @@
         <v>95</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>76</v>
+        <v>194</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7709,18 +7757,20 @@
         <v>76</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>196</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>76</v>
@@ -7769,7 +7819,7 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -7781,7 +7831,7 @@
         <v>76</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>76</v>
@@ -7790,23 +7840,23 @@
         <v>76</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>153</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>76</v>
@@ -7815,21 +7865,21 @@
         <v>76</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>76</v>
       </c>
@@ -7877,19 +7927,19 @@
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>76</v>
@@ -7898,47 +7948,45 @@
         <v>76</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>153</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>271</v>
+        <v>76</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>129</v>
+        <v>196</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>272</v>
+        <v>209</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>76</v>
@@ -7987,19 +8035,19 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>274</v>
+        <v>212</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>76</v>
@@ -8008,12 +8056,12 @@
         <v>76</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>126</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8021,7 +8069,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>83</v>
@@ -8036,16 +8084,20 @@
         <v>84</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>160</v>
+        <v>215</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>333</v>
+        <v>216</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>76</v>
       </c>
@@ -8069,13 +8121,13 @@
         <v>76</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>335</v>
+        <v>76</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>336</v>
+        <v>76</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>76</v>
@@ -8093,10 +8145,10 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>332</v>
+        <v>220</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>83</v>
@@ -8108,18 +8160,18 @@
         <v>95</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>76</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8130,7 +8182,7 @@
         <v>74</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>76</v>
@@ -8142,16 +8194,20 @@
         <v>84</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>264</v>
+        <v>196</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>338</v>
+        <v>223</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>76</v>
       </c>
@@ -8199,13 +8255,13 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>337</v>
+        <v>227</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>76</v>
@@ -8214,18 +8270,18 @@
         <v>95</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8245,16 +8301,16 @@
         <v>76</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>196</v>
+        <v>316</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>168</v>
+        <v>317</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>169</v>
+        <v>318</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8305,7 +8361,7 @@
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>170</v>
+        <v>315</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>74</v>
@@ -8317,32 +8373,32 @@
         <v>76</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>76</v>
+        <v>319</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>153</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>76</v>
@@ -8351,20 +8407,18 @@
         <v>76</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>129</v>
+        <v>316</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>130</v>
+        <v>321</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>76</v>
@@ -8413,69 +8467,65 @@
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>176</v>
+        <v>320</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>76</v>
+        <v>323</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>153</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>271</v>
+        <v>76</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>129</v>
+        <v>316</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>272</v>
+        <v>325</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>76</v>
       </c>
@@ -8523,33 +8573,33 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>274</v>
+        <v>324</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>76</v>
+        <v>327</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>126</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8557,7 +8607,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>83</v>
@@ -8572,13 +8622,13 @@
         <v>84</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>160</v>
+        <v>329</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8605,13 +8655,13 @@
         <v>76</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>335</v>
+        <v>76</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>346</v>
+        <v>76</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>76</v>
@@ -8629,10 +8679,10 @@
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>83</v>
@@ -8644,7 +8694,7 @@
         <v>95</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>153</v>
+        <v>332</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>76</v>
@@ -8655,7 +8705,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8663,7 +8713,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>83</v>
@@ -8678,13 +8728,13 @@
         <v>84</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8735,10 +8785,10 @@
         <v>76</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>83</v>
@@ -8750,7 +8800,7 @@
         <v>95</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>153</v>
+        <v>337</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>76</v>
@@ -8761,7 +8811,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8772,7 +8822,7 @@
         <v>74</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>76</v>
@@ -8784,13 +8834,13 @@
         <v>84</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>196</v>
+        <v>264</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8841,13 +8891,13 @@
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>76</v>
@@ -8862,6 +8912,1184 @@
         <v>76</v>
       </c>
       <c r="AL69" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL80" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T18:15:34+00:00</t>
+    <t>2022-10-30T20:04:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T20:04:00+00:00</t>
+    <t>2022-10-30T21:50:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T21:50:47+00:00</t>
+    <t>2022-10-30T22:04:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T22:04:36+00:00</t>
+    <t>2022-10-30T22:13:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T22:13:17+00:00</t>
+    <t>2022-11-02T06:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T06:16:24+00:00</t>
+    <t>2022-11-02T20:48:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T20:48:31+00:00</t>
+    <t>2022-11-03T14:07:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-03T14:07:58+00:00</t>
+    <t>2022-11-05T15:30:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-05T15:30:00+00:00</t>
+    <t>2022-11-05T15:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -726,7 +726,7 @@
     <t>AdministrableProductDefinition.unitOfPresentation</t>
   </si>
   <si>
-    <t>Unit of presentation of the administrable product (after preparing for administration)</t>
+    <t>Unit of presentation of the administrable product (after preparing for administration). Not applicable for certain products/packaging.</t>
   </si>
   <si>
     <t>The presentation type in which this item is given to a patient. e.g. for a spray - 'puff' (as in 'contains 100 mcg per puff'), or for a liquid - 'vial' (as in 'contains 5 ml per vial').</t>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>83</v>

--- a/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-05T15:35:25+00:00</t>
+    <t>2022-11-06T17:03:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -518,7 +518,7 @@
     <t>Dose form of the administrable product (after preparing for administration)</t>
   </si>
   <si>
-    <t>The dose form of the final product after necessary reconstitution or processing. Contrasts to the manufactured dose form (see ManufacturedItemDefinition). If the manufactured form was 'powder for solution for injection', the administrable dose form could be 'solution for injection' (once mixed with another item having manufactured form 'solvent for solution for injection').</t>
+    <t>EMA IG 6.2</t>
   </si>
   <si>
     <t>example</t>
@@ -729,7 +729,7 @@
     <t>Unit of presentation of the administrable product (after preparing for administration). Not applicable for certain products/packaging.</t>
   </si>
   <si>
-    <t>The presentation type in which this item is given to a patient. e.g. for a spray - 'puff' (as in 'contains 100 mcg per puff'), or for a liquid - 'vial' (as in 'contains 5 ml per vial').</t>
+    <t>EMA IG 6.3</t>
   </si>
   <si>
     <t>The presentation type in which an administrable medicinal product is given to a patient.</t>
@@ -918,7 +918,7 @@
     <t>The path by which the product is taken into or makes contact with the body</t>
   </si>
   <si>
-    <t>The path by which the product is taken into or makes contact with the body. In some regions this is referred to as the licenced or approved route. RouteOfAdministration cannot be used when the 'formOf' product already uses MedicinalProductDefinition.route (and vice versa).</t>
+    <t>EMA IG 6.6</t>
   </si>
   <si>
     <t>Pharmaceutical Product.Route of Administration</t>

--- a/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-06T17:03:22+00:00</t>
+    <t>2022-11-06T21:19:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -610,7 +610,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>https://spor.ema.europa.eu/rmswi/#/lists/200000000004/terms</t>
+    <t>http://spor.ema.europa.eu/v1/lists/200000000004</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -759,7 +759,7 @@
     <t>AdministrableProductDefinition.unitOfPresentation.coding.system</t>
   </si>
   <si>
-    <t>https://spor.ema.europa.eu/rmswi/#/lists/200000000014/terms</t>
+    <t>http://spor.ema.europa.eu/v1/lists/200000000014</t>
   </si>
   <si>
     <t>AdministrableProductDefinition.unitOfPresentation.coding.version</t>
@@ -969,7 +969,7 @@
     <t>AdministrableProductDefinition.routeOfAdministration.code.coding.system</t>
   </si>
   <si>
-    <t>https://spor.ema.europa.eu/rmswi/#/lists/100000073345/terms</t>
+    <t>http://spor.ema.europa.eu/v1/lists/100000073345</t>
   </si>
   <si>
     <t>AdministrableProductDefinition.routeOfAdministration.code.coding.version</t>

--- a/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-06T21:19:48+00:00</t>
+    <t>2022-11-06T22:26:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-06T22:26:11+00:00</t>
+    <t>2022-11-07T21:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:05:10+00:00</t>
+    <t>2022-11-07T21:23:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:23:46+00:00</t>
+    <t>2022-11-07T21:31:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:31:45+00:00</t>
+    <t>2022-11-08T20:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/StructureDefinition/PPLAdministrableProductDefinition</t>
+    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLAdministrableProductDefinition</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-08T20:50:12+00:00</t>
+    <t>2022-11-11T15:50:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -495,7 +495,7 @@
     <t>AdministrableProductDefinition.formOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLMedicinalProductDefinition)
+    <t xml:space="preserve">Reference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLMedicinalProductDefinition)
 </t>
   </si>
   <si>
@@ -780,7 +780,7 @@
     <t>AdministrableProductDefinition.producedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLManufacturedItemDefinition)
+    <t xml:space="preserve">Reference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLManufacturedItemDefinition)
 </t>
   </si>
   <si>

--- a/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T15:50:31+00:00</t>
+    <t>2022-11-11T20:48:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T20:48:35+00:00</t>
+    <t>2022-11-14T19:25:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
+++ b/branches/mpd-r5/StructureDefinition-PPLAdministrableProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T19:25:53+00:00</t>
+    <t>2022-11-17T17:44:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
